--- a/docs/bcparks.ca domains.xlsx
+++ b/docs/bcparks.ca domains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED4B8BD-4459-46E0-BE6B-BC19F582AB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B961171-76C0-4C08-B4DE-274242999F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{E43966D4-44BC-42F1-B6B1-5E575D7EFA71}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>API endpoint access</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>BC Parks beta site tools environment</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>Staging/Gatsby</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -636,7 +642,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="str">
-        <f t="shared" ref="A3:A21" si="0">IF(D3="prod",B3&amp;".bcparks.ca",D3&amp;"-"&amp;B3&amp;".bcparks.ca")</f>
+        <f t="shared" ref="A3:A22" si="0">IF(D3="prod",B3&amp;".bcparks.ca",D3&amp;"-"&amp;B3&amp;".bcparks.ca")</f>
         <v>dev-api.bcparks.ca</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1008,34 +1014,70 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>staging.bcparks.ca</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="10" t="str">
+        <f t="shared" ref="A23:A25" si="1">IF(D23="prod",B23&amp;".bcparks.ca",D23&amp;"-"&amp;B23&amp;".bcparks.ca")</f>
+        <v>dev-staging.bcparks.ca</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>test-staging.bcparks.ca</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>tools-staging.bcparks.ca</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>

--- a/docs/bcparks.ca domains.xlsx
+++ b/docs/bcparks.ca domains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\bcparks.ca\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sfp.idir.bcgov\s140\S40206\PPAD\_Marketing &amp; Partnerships\Web\CMS Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B961171-76C0-4C08-B4DE-274242999F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4698DA66-E96E-4C0E-BB05-2A024D670904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16200" windowWidth="25440" windowHeight="15540" xr2:uid="{E43966D4-44BC-42F1-B6B1-5E575D7EFA71}"/>
+    <workbookView xWindow="-21825" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E43966D4-44BC-42F1-B6B1-5E575D7EFA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>Subdomain</t>
   </si>
   <si>
-    <t>dam</t>
-  </si>
-  <si>
     <t>API tools environment</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Staging/Gatsby</t>
+  </si>
+  <si>
+    <t>photos</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A25"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -775,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -857,17 +857,17 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dam.bcparks.ca</v>
+        <v>photos.bcparks.ca</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>35</v>
@@ -883,10 +883,10 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>dev-dam.bcparks.ca</v>
+        <v>dev-photos.bcparks.ca</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -902,10 +902,10 @@
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>test-dam.bcparks.ca</v>
+        <v>test-photos.bcparks.ca</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>35</v>
@@ -921,10 +921,10 @@
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>tools-dam.bcparks.ca</v>
+        <v>tools-photos.bcparks.ca</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>35</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1019,10 +1019,10 @@
         <v>staging.bcparks.ca</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>25</v>
@@ -1036,10 +1036,10 @@
         <v>dev-staging.bcparks.ca</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>23</v>
@@ -1053,10 +1053,10 @@
         <v>test-staging.bcparks.ca</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>24</v>
@@ -1070,10 +1070,10 @@
         <v>tools-staging.bcparks.ca</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>26</v>
